--- a/StructureDefinition-vp-administered-vaccination-dose.xlsx
+++ b/StructureDefinition-vp-administered-vaccination-dose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T16:31:22+00:00</t>
+    <t>2022-07-17T19:03:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-administered-vaccination-dose.xlsx
+++ b/StructureDefinition-vp-administered-vaccination-dose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T19:03:56+00:00</t>
+    <t>2022-08-04T11:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-administered-vaccination-dose.xlsx
+++ b/StructureDefinition-vp-administered-vaccination-dose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T11:06:48+00:00</t>
+    <t>2022-08-04T13:09:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-administered-vaccination-dose.xlsx
+++ b/StructureDefinition-vp-administered-vaccination-dose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T13:09:21+00:00</t>
+    <t>2022-08-04T16:22:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-administered-vaccination-dose.xlsx
+++ b/StructureDefinition-vp-administered-vaccination-dose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T16:22:49+00:00</t>
+    <t>2022-08-04T21:23:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-administered-vaccination-dose.xlsx
+++ b/StructureDefinition-vp-administered-vaccination-dose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T21:23:28+00:00</t>
+    <t>2022-08-04T21:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-administered-vaccination-dose.xlsx
+++ b/StructureDefinition-vp-administered-vaccination-dose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T21:39:40+00:00</t>
+    <t>2022-08-04T22:05:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-administered-vaccination-dose.xlsx
+++ b/StructureDefinition-vp-administered-vaccination-dose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:05:52+00:00</t>
+    <t>2022-08-04T22:26:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-administered-vaccination-dose.xlsx
+++ b/StructureDefinition-vp-administered-vaccination-dose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:26:29+00:00</t>
+    <t>2022-08-04T22:36:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-administered-vaccination-dose.xlsx
+++ b/StructureDefinition-vp-administered-vaccination-dose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:36:48+00:00</t>
+    <t>2022-08-04T22:42:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-administered-vaccination-dose.xlsx
+++ b/StructureDefinition-vp-administered-vaccination-dose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:42:55+00:00</t>
+    <t>2022-08-10T21:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-administered-vaccination-dose.xlsx
+++ b/StructureDefinition-vp-administered-vaccination-dose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T21:41:07+00:00</t>
+    <t>2022-08-11T05:51:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-administered-vaccination-dose.xlsx
+++ b/StructureDefinition-vp-administered-vaccination-dose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T05:51:10+00:00</t>
+    <t>2022-08-11T13:02:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-administered-vaccination-dose.xlsx
+++ b/StructureDefinition-vp-administered-vaccination-dose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T13:02:01+00:00</t>
+    <t>2022-08-11T13:55:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-administered-vaccination-dose.xlsx
+++ b/StructureDefinition-vp-administered-vaccination-dose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T13:55:21+00:00</t>
+    <t>2022-08-12T19:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-administered-vaccination-dose.xlsx
+++ b/StructureDefinition-vp-administered-vaccination-dose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T19:53:56+00:00</t>
+    <t>2022-08-13T11:44:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-administered-vaccination-dose.xlsx
+++ b/StructureDefinition-vp-administered-vaccination-dose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-13T11:44:57+00:00</t>
+    <t>2022-08-23T12:16:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
